--- a/Punktacja_2019_2018.xlsx
+++ b/Punktacja_2019_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\daniel.wyrwal@gmail.com\Projekty\Programy użytkowe\Punktacja_IMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71390514-B6DA-414D-AC28-B2F6586EFB78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BCB27830-063D-451D-9217-BA2E86A50EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -3169,7 +3169,7 @@
   <dimension ref="A1:U246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
